--- a/data/setup/公司基本資料.xlsx
+++ b/data/setup/公司基本資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.tu\Desktop\Capstone\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9F2E1-D809-4B46-BBAF-DA000FB2D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE106C-FE8F-4337-8DFF-AFC12A5F4A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>COGNIZANT TECHNOLOGY SOLUTIONS CORP</t>
   </si>
@@ -94,13 +94,20 @@
   <si>
     <t>StartMonth</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPAM Systems, Inc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech Mahindra Limited</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +121,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -418,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -594,6 +608,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
